--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,286 +436,546 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Título</t>
+          <t>Software/Sistema</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>Current Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>References to Advisories,Solutions, and Tools</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Know Affected Software Configurations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NVD Published Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Link para o respectivo CVE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>CVE-2021-43010</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>In Safedog Apache v4.0.30255, attackers can bypass this product for SQL injection. Attackers can bypass access to sensitive data.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Maio 10, 2022; 3:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-43010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>In Safedog Apache v4.0.30255, attackers can bypass this product for SQL injection. Attackers can bypass access to sensitive data.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Maio 10, 2022; 3:15:08 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>CVE-2022-28890</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Maio 05, 2022; 5:15:08 AM -0400</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-28890</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Maio 05, 2022; 5:15:08 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>CVE-2022-29265</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Abril 30, 2022; 4:15:06 AM -0400</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-29265</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Abril 30, 2022; 4:15:06 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>CVE-2022-23942</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Abril 26, 2022; 12:15:47 PM -0400</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-23942</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Abril 26, 2022; 12:15:47 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>CVE-2022-24706</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Abril 26, 2022; 6:15:35 AM -0400</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-24706</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Abril 26, 2022; 6:15:35 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>CVE-2022-29266</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Abril 20, 2022; 4:15:07 AM -0400</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-29266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Abril 20, 2022; 4:15:07 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>CVE-2022-0070</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-0070</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>CVE-2021-3100</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-3100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-12 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>CVE-2022-27479</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Abril 13, 2022; 3:15:09 PM -0400</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-27479</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Abril 13, 2022; 3:15:09 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>CVE-2022-24070</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Abril 12, 2022; 2:15:09 PM -0400</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-24070</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 2:15:09 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>CVE-2021-28544</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Abril 12, 2022; 2:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-28544</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 2:15:08 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>CVE-2021-31805</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Abril 12, 2022; 12:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-31805</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 12:15:08 PM -0400</t>
         </is>
       </c>
     </row>

--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,286 +436,402 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Título</t>
+          <t>Software/Sistema</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Descrição</t>
+          <t>Current Description</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>References to Advisories,Solutions, and Tools</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Know Affected Software Configurations</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NVD Published Date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Link para o respectivo CVE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>CVE-2021-43010</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>In Safedog Apache v4.0.30255, attackers can bypass this product for SQL injection. Attackers can bypass access to sensitive data.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>May 10, 2022; 3:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-43010</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>In Safedog Apache v4.0.30255, attackers can bypass this product for SQL injection. Attackers can bypass access to sensitive data.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Maio 10, 2022; 3:15:08 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>CVE-2022-28890</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>May 05, 2022; 5:15:08 AM -0400</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-28890</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Maio 05, 2022; 5:15:08 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>CVE-2022-29265</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>April 30, 2022; 4:15:06 AM -0400</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-29265</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Abril 30, 2022; 4:15:06 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>CVE-2022-23942</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>April 26, 2022; 12:15:47 PM -0400</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-23942</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Abril 26, 2022; 12:15:47 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>CVE-2022-24706</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>April 26, 2022; 6:15:35 AM -0400</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-24706</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Abril 26, 2022; 6:15:35 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>CVE-2022-29266</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>April 20, 2022; 4:15:07 AM -0400</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-29266</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Abril 20, 2022; 4:15:07 AM -0400</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>CVE-2022-0070</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>April 19, 2022; 7:15:13 PM -0400</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-0070</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>CVE-2021-3100</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>April 19, 2022; 7:15:13 PM -0400</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-3100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-12 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Abril 19, 2022; 7:15:13 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>CVE-2022-27479</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>April 13, 2022; 3:15:09 PM -0400</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-27479</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Abril 13, 2022; 3:15:09 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>CVE-2022-24070</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>April 12, 2022; 2:15:09 PM -0400</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2022-24070</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 2:15:09 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>CVE-2021-28544</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>April 12, 2022; 2:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-28544</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 2:15:08 PM -0400</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>apache</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>CVE-2021-31805</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>April 12, 2022; 12:15:08 PM -0400</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>/vuln/detail/CVE-2021-31805</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Abril 12, 2022; 12:15:08 PM -0400</t>
         </is>
       </c>
     </row>

--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -491,21 +491,9 @@
           <t>In Safedog Apache v4.0.30255, attackers can bypass this product for SQL injection. Attackers can bypass access to sensitive data.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>Maio 10, 2022; 3:15:08 PM -0400</t>
@@ -513,7 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2021-43010</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2021-43010</t>
         </is>
       </c>
     </row>
@@ -533,21 +521,9 @@
           <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Maio 05, 2022; 5:15:08 AM -0400</t>
@@ -555,7 +531,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-28890</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-28890</t>
         </is>
       </c>
     </row>
@@ -575,21 +551,9 @@
           <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>Abril 30, 2022; 4:15:06 AM -0400</t>
@@ -597,7 +561,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-29265</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-29265</t>
         </is>
       </c>
     </row>
@@ -617,21 +581,9 @@
           <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>Abril 26, 2022; 12:15:47 PM -0400</t>
@@ -639,7 +591,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-23942</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-23942</t>
         </is>
       </c>
     </row>
@@ -659,21 +611,9 @@
           <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Abril 26, 2022; 6:15:35 AM -0400</t>
@@ -681,7 +621,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-24706</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-24706</t>
         </is>
       </c>
     </row>
@@ -701,21 +641,9 @@
           <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Abril 20, 2022; 4:15:07 AM -0400</t>
@@ -723,7 +651,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-29266</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-29266</t>
         </is>
       </c>
     </row>
@@ -743,21 +671,9 @@
           <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>Abril 19, 2022; 7:15:13 PM -0400</t>
@@ -765,7 +681,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-0070</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-0070</t>
         </is>
       </c>
     </row>
@@ -785,21 +701,9 @@
           <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>Abril 19, 2022; 7:15:13 PM -0400</t>
@@ -807,7 +711,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2021-3100</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2021-3100</t>
         </is>
       </c>
     </row>
@@ -827,21 +731,9 @@
           <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Abril 13, 2022; 3:15:09 PM -0400</t>
@@ -849,7 +741,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-27479</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-27479</t>
         </is>
       </c>
     </row>
@@ -869,21 +761,9 @@
           <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 2:15:09 PM -0400</t>
@@ -891,7 +771,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2022-24070</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2022-24070</t>
         </is>
       </c>
     </row>
@@ -911,21 +791,9 @@
           <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 2:15:08 PM -0400</t>
@@ -933,7 +801,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2021-28544</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2021-28544</t>
         </is>
       </c>
     </row>
@@ -953,21 +821,9 @@
           <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>Abril 12, 2022; 12:15:08 PM -0400</t>
@@ -975,7 +831,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>/vuln/detail/CVE-2021-31805</t>
+          <t>https://nvd.nist.gov//vuln/detail/CVE-2021-31805</t>
         </is>
       </c>
     </row>

--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -521,7 +521,9 @@
           <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
@@ -551,7 +553,9 @@
           <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
@@ -581,7 +585,9 @@
           <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
@@ -611,7 +617,9 @@
           <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
@@ -641,7 +649,9 @@
           <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
@@ -671,7 +681,9 @@
           <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
@@ -701,7 +713,9 @@
           <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>8.800000000000001</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
@@ -731,7 +745,9 @@
           <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
@@ -761,7 +777,9 @@
           <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>7.5</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -791,7 +809,9 @@
           <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>4.3</v>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
@@ -821,7 +841,9 @@
           <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>9.800000000000001</v>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">

--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,8 +521,10 @@
           <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>9.800000000000001</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -540,7 +542,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,8 +555,10 @@
           <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>7.5</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -572,7 +576,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,8 +589,10 @@
           <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>7.5</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -604,7 +610,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,8 +623,10 @@
           <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>9.800000000000001</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -636,7 +644,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,8 +657,10 @@
           <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>7.5</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -668,7 +678,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,8 +691,10 @@
           <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>8.800000000000001</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -700,7 +712,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,8 +725,10 @@
           <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>8.800000000000001</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.8</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -732,7 +746,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,8 +759,10 @@
           <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>9.800000000000001</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -764,7 +780,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,8 +793,10 @@
           <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>7.5</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -796,7 +814,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,8 +827,10 @@
           <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>4.3</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -828,7 +848,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>apache</t>
+          <t>APACHE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,8 +861,10 @@
           <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>9.800000000000001</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.8</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>

--- a/Desafio Python Web Scraping/webScraping.xlsx
+++ b/Desafio Python Web Scraping/webScraping.xlsx
@@ -521,10 +521,8 @@
           <t>A vulnerability in the RDF/XML parser of Apache Jena allows an attacker to cause an external DTD to be retrieved. This issue affects Apache Jena version 4.4.0 and prior versions. Apache Jena 4.2.x and 4.3.x do not allow external entities.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="D3" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -555,10 +553,8 @@
           <t>Multiple components in Apache NiFi 0.0.1 to 1.16.0 do not restrict XML External Entity references in the default configuration. The Standard Content Viewer service attempts to resolve XML External Entity references when viewing formatted XML files. The following Processors attempt to resolve XML External Entity references when configured with default property values: - EvaluateXPath - EvaluateXQuery - ValidateXml Apache NiFi flow configurations that include these Processors are vulnerable to malicious XML documents that contain Document Type Declarations with XML External Entity references. The resolution disables Document Type Declarations in the default configuration for these Processors, and disallows XML External Entity resolution in standard services.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="D4" t="n">
+        <v>7.5</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -589,10 +585,8 @@
           <t>Apache Doris, prior to 1.0.0, used a hardcoded key and IV to initialize the cipher used for ldap password, which may lead to information disclosure.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="D5" t="n">
+        <v>7.5</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -623,10 +617,8 @@
           <t>In Apache CouchDB prior to 3.2.2, an attacker can access an improperly secured default installation without authenticating and gain admin privileges. The CouchDB documentation has always made recommendations for properly securing an installation, including recommending using a firewall in front of all CouchDB installations.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="D6" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -657,10 +649,8 @@
           <t>In APache APISIX before 3.13.1, the jwt-auth plugin has a security issue that leaks the user's secret key because the error message returned from the dependency lua-resty-jwt contains sensitive information.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="D7" t="n">
+        <v>7.5</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -691,10 +681,8 @@
           <t>Incomplete fix for CVE-2021-3100. The Apache Log4j hotpatch package starting with log4j-cve-2021-44228-hotpatch-1.1-16 will now explicitly mimic the Linux capabilities and cgroups of the target Java process that the hotpatch is applied to.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D8" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -725,10 +713,8 @@
           <t>The Apache Log4j hotpatch package before log4j-cve-2021-44228-hotpatch-1.1-13 didn’t mimic the permissions of the JVM being patched, allowing it to escalate privileges.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
+      <c r="D9" t="n">
+        <v>8.800000000000001</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -759,10 +745,8 @@
           <t>Apache Superset before 1.4.2 is vulnerable to SQL injection in chart data requests. Users should update to 1.4.2 or higher which addresses this issue.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="D10" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -793,10 +777,8 @@
           <t>Subversion's mod_dav_svn is vulnerable to memory corruption. While looking up path-based authorization rules, mod_dav_svn servers may attempt to use memory which has already been freed. Affected Subversion mod_dav_svn servers 1.10.0 through 1.14.1 (inclusive). Servers that do not use mod_dav_svn are not affected.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
+      <c r="D11" t="n">
+        <v>7.5</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -827,10 +809,8 @@
           <t>Apache Subversion SVN authz protected copyfrom paths regression Subversion servers reveal 'copyfrom' paths that should be hidden according to configured path-based authorization (authz) rules. When a node has been copied from a protected location, users with access to the copy can see the 'copyfrom' path of the original. This also reveals the fact that the node was copied. Only the 'copyfrom' path is revealed; not its contents. Both httpd and svnserve servers are vulnerable.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
+      <c r="D12" t="n">
+        <v>4.3</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -861,10 +841,8 @@
           <t>The fix issued for CVE-2020-17530 was incomplete. So from Apache Struts 2.0.0 to 2.5.29, still some of the tag’s attributes could perform a double evaluation if a developer applied forced OGNL evaluation by using the %{...} syntax. Using forced OGNL evaluation on untrusted user input can lead to a Remote Code Execution and security degradation.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
+      <c r="D13" t="n">
+        <v>9.800000000000001</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
